--- a/howell_7.xlsx
+++ b/howell_7.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jul 20, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 03, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PlaceHolder75</t>
+          <t>PH47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PlaceHolder83</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PlaceHolder55</t>
+          <t>PH18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PlaceHolder95</t>
+          <t>PH39</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PlaceHolder81</t>
+          <t>PH42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PlaceHolder16</t>
+          <t>PH30</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PlaceHolder83</t>
+          <t>PH91</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PlaceHolder40</t>
+          <t>PH66</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PlaceHolder89</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PlaceHolder68</t>
+          <t>PH44</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PlaceHolder11</t>
+          <t>PH55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PlaceHolder99</t>
+          <t>PH62</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PlaceHolder94</t>
+          <t>PH54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PlaceHolder28</t>
+          <t>PH91</t>
         </is>
       </c>
       <c r="D8" s="4">
